--- a/data/trans_dic/P70A04_2007-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70A04_2007-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,76%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>52,41; 67,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>32,1; 49,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>45,13; 58,15</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,35%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>56,72; 66,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>49,56; 62,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>55,39; 63,19</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,97%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>58,4; 67,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>47,42; 60,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>56,63; 63,91</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,56%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>55,6; 66,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>35,88; 53,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>51,86; 60,65</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,54%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,14%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>55,92; 71,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>45,49; 71,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>54,63; 68,81</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,96%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 67,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 70,0</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,78%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,24%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>59,34; 64,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>48,09; 55,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>56,3; 60,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A04_2007-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70A04_2007-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>20,32%</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,35</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -839,14 +839,14 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,0</t>
+          <t>0,0; 73,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>33,24%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>61,78%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>51,59%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>58,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>59,34; 64,09</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>48,09; 55,37</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>56,3; 60,37</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P70A04_2007-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70A04_2007-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,41; 67,99</t>
+          <t>51,71; 68,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,1; 49,21</t>
+          <t>31,82; 50,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,13; 58,15</t>
+          <t>46,12; 58,0</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,72; 66,27</t>
+          <t>57,17; 66,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,56; 62,16</t>
+          <t>48,66; 61,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,39; 63,19</t>
+          <t>55,53; 63,21</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,4; 67,88</t>
+          <t>58,22; 67,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,42; 60,58</t>
+          <t>47,39; 60,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,63; 63,91</t>
+          <t>56,49; 63,7</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>55,6; 66,87</t>
+          <t>55,99; 66,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,88; 53,27</t>
+          <t>36,45; 53,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,86; 60,65</t>
+          <t>52,05; 61,15</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>55,92; 71,76</t>
+          <t>54,72; 71,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,49; 71,13</t>
+          <t>43,97; 72,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,63; 68,81</t>
+          <t>54,52; 68,81</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>59,34; 64,09</t>
+          <t>59,19; 63,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,09; 55,37</t>
+          <t>48,18; 54,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,3; 60,37</t>
+          <t>56,17; 60,29</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene un servicio de prevención de riesgos laborales en su empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>91818</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47381</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>139199</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>78930; 104201</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37003; 58217</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>124024; 155982</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>283653</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>150651</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>434304</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>263443; 304253</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>131869; 166344</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>406346; 462536</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>298744</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>138692</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>437436</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>276534; 321430</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>120605; 154991</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>412097; 464648</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>214747</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>62824</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>277572</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>196305; 233001</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>51079; 75365</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>255415; 300074</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>82437</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>31887</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>114324</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>70991; 92856</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23847; 39071</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100304; 126599</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1462</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1843</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3262</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2471</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2471</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>972221</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>432331</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1404553</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>931470; 1006572</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>403762; 459693</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1354657; 1454098</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>